--- a/Pseudo/Procedures.xlsx
+++ b/Pseudo/Procedures.xlsx
@@ -9,10 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19836" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19836" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ZHRI100A.SQR" sheetId="1" r:id="rId1"/>
+    <sheet name="ZHRI101A.SQC" sheetId="2" r:id="rId2"/>
+    <sheet name="ZHRI102A.SQC" sheetId="3" r:id="rId3"/>
+    <sheet name="ZHRI104A.SQC" sheetId="4" r:id="rId4"/>
+    <sheet name="ZHRI105A.SQC" sheetId="5" r:id="rId5"/>
+    <sheet name="ZHRI107A.SQC" sheetId="6" r:id="rId6"/>
+    <sheet name="ZHRI109A.SQC" sheetId="7" r:id="rId7"/>
+    <sheet name="ZHRI110A.SQC" sheetId="8" r:id="rId8"/>
+    <sheet name="ZHRI201A.SQC" sheetId="9" r:id="rId9"/>
+    <sheet name="ZHRI202A.SQC" sheetId="10" r:id="rId10"/>
+    <sheet name="ZHRI205A.SQC" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="221">
   <si>
     <t xml:space="preserve">PROCEDURE              </t>
   </si>
@@ -80,9 +90,6 @@
     <t>Check-If-Contractor</t>
   </si>
   <si>
-    <t>PROCEDURES DEFINED IN ZHRI100A.SQR</t>
-  </si>
-  <si>
     <t>Check-If-Correct102A</t>
   </si>
   <si>
@@ -300,6 +307,396 @@
   </si>
   <si>
     <t>sets error message and error flag value for an error on insert and calls Call-Error-Routine procedure</t>
+  </si>
+  <si>
+    <t>HR01-Initialize-Fields</t>
+  </si>
+  <si>
+    <t>HR01-Process-Main</t>
+  </si>
+  <si>
+    <t>HR01-Massage-Data</t>
+  </si>
+  <si>
+    <t>//formats the data for the RPG rexec call</t>
+  </si>
+  <si>
+    <t>HR01-Build-Call-Statement</t>
+  </si>
+  <si>
+    <t>HR01-Get-Legacy-Ethnic-Code</t>
+  </si>
+  <si>
+    <t>HR01-Get-Position</t>
+  </si>
+  <si>
+    <t>HR01-Get-Referral-Source</t>
+  </si>
+  <si>
+    <t>HR01-Get-Branch</t>
+  </si>
+  <si>
+    <t>HR01-Get-Group</t>
+  </si>
+  <si>
+    <t>HR01-Get-job-data</t>
+  </si>
+  <si>
+    <t>HR01-Get-Personal-Data</t>
+  </si>
+  <si>
+    <t>HR01-Get-Location-Country</t>
+  </si>
+  <si>
+    <t>HR01-Get-Office-Phone</t>
+  </si>
+  <si>
+    <t>HR01-Get-Main-Phone</t>
+  </si>
+  <si>
+    <t>HR01-Get-Ethnic-Group</t>
+  </si>
+  <si>
+    <t>GET-ETHNIC-CODE</t>
+  </si>
+  <si>
+    <t>GET-2CHAR-COUNTRY</t>
+  </si>
+  <si>
+    <t>HR02-Initialize-Fields</t>
+  </si>
+  <si>
+    <t>HR02-Process-Main</t>
+  </si>
+  <si>
+    <t>HR02-Get-Job</t>
+  </si>
+  <si>
+    <t>HR02-Process-Data</t>
+  </si>
+  <si>
+    <t>HR02-Trim-Parameters</t>
+  </si>
+  <si>
+    <t>HR02-Get-Action-Reason</t>
+  </si>
+  <si>
+    <t>HR02-Get-Reason-Description</t>
+  </si>
+  <si>
+    <t>Initialize the fields to ensure that that they all start out blank.</t>
+  </si>
+  <si>
+    <t>This is the main processing procedure</t>
+  </si>
+  <si>
+    <t>This routine will the Job Data row for each of the employee numbers entered in the trigger file.</t>
+  </si>
+  <si>
+    <t>This routine moves 'N' to change address parameter and calls the RPG program.</t>
+  </si>
+  <si>
+    <t>This routine trims all leading and trailing blanks from the data.</t>
+  </si>
+  <si>
+    <t>This routine will determine if a termination was voluntary or involuntary basedd on Action and Action Reason codes.</t>
+  </si>
+  <si>
+    <t>This routine gets the description field from the Action Reason table when Action = Termination and Action Code equals Other.</t>
+  </si>
+  <si>
+    <t>HR04-Initialize-Fields</t>
+  </si>
+  <si>
+    <t>HR04-Process-Main</t>
+  </si>
+  <si>
+    <t>HR04-Get-Job-Data</t>
+  </si>
+  <si>
+    <t>HR04-Massage-Data</t>
+  </si>
+  <si>
+    <t>HR04-Call-RPG</t>
+  </si>
+  <si>
+    <t>HR04-Get-Position</t>
+  </si>
+  <si>
+    <t>HR04-Get-Branch</t>
+  </si>
+  <si>
+    <t>HR04-Get-Group</t>
+  </si>
+  <si>
+    <t>HR05-Process-Main</t>
+  </si>
+  <si>
+    <t>HR05-Get-Personal-Data</t>
+  </si>
+  <si>
+    <t>HR05-Get-Referral-Source</t>
+  </si>
+  <si>
+    <t>HR05-Get-Info</t>
+  </si>
+  <si>
+    <t>HR05-Get-Job</t>
+  </si>
+  <si>
+    <t>HR05-Get-Location-Country</t>
+  </si>
+  <si>
+    <t>HR05-Get-Pers-Nid</t>
+  </si>
+  <si>
+    <t>HR05-Get-Business-Phone</t>
+  </si>
+  <si>
+    <t>HR05-Get-Main-Phone</t>
+  </si>
+  <si>
+    <t>HR05-Get-Employee-Checklist</t>
+  </si>
+  <si>
+    <t>HR05-Get-Next-Opid</t>
+  </si>
+  <si>
+    <t>HR05-Get-Names-Table</t>
+  </si>
+  <si>
+    <t>HR05-Get-Citizenship</t>
+  </si>
+  <si>
+    <t>HR05-Get-Diversity</t>
+  </si>
+  <si>
+    <t>Get-Ethnic-Code1</t>
+  </si>
+  <si>
+    <t>HR05-Get-Ethnic-Group</t>
+  </si>
+  <si>
+    <t>HR05-Get-Drivers-Lic</t>
+  </si>
+  <si>
+    <t>HR05-Get-Emergency-Cntct</t>
+  </si>
+  <si>
+    <t>HR05-Format-Name</t>
+  </si>
+  <si>
+    <t>HR05-Format-Referral-Source</t>
+  </si>
+  <si>
+    <t>HR05-Get-Location</t>
+  </si>
+  <si>
+    <t>HR05-Get-Business-Unit</t>
+  </si>
+  <si>
+    <t>HR05-Format-Relationships</t>
+  </si>
+  <si>
+    <t>HR05-Process-Data</t>
+  </si>
+  <si>
+    <t>HR05-Call-RPG-Program</t>
+  </si>
+  <si>
+    <t>HR05-Trim-Parameters</t>
+  </si>
+  <si>
+    <t>HR05-Get-2Char-Country</t>
+  </si>
+  <si>
+    <t>HR05-Get-Region</t>
+  </si>
+  <si>
+    <t>HR05-Initialize-Fields</t>
+  </si>
+  <si>
+    <t>Initialize fields to default values</t>
+  </si>
+  <si>
+    <t>HR07-Initialize-Fields</t>
+  </si>
+  <si>
+    <t>HR07-Process-Main</t>
+  </si>
+  <si>
+    <t>HR07-Get-Employee-Review</t>
+  </si>
+  <si>
+    <t>HR07-Get-Accomplishments</t>
+  </si>
+  <si>
+    <t>HR07-Get-Contract-Data</t>
+  </si>
+  <si>
+    <t>HR07-Call-RPG</t>
+  </si>
+  <si>
+    <t>HR09-Initialize-Fields</t>
+  </si>
+  <si>
+    <t>HR09-Get-Personal-Data</t>
+  </si>
+  <si>
+    <t>HR09-Get-job-data</t>
+  </si>
+  <si>
+    <t>HR09-Massage-Data</t>
+  </si>
+  <si>
+    <t>HR09-Call-RPG</t>
+  </si>
+  <si>
+    <t>HR09-Get-Group</t>
+  </si>
+  <si>
+    <t>HR09-Get-Branch</t>
+  </si>
+  <si>
+    <t>HR09-Get-Country</t>
+  </si>
+  <si>
+    <t>HR09-Get-Region</t>
+  </si>
+  <si>
+    <t>HR09-Process-Main</t>
+  </si>
+  <si>
+    <t>(#WrkSequence, $PSUserOprid, $Wrk_Emplid, $PSEffdt, #WrkEffseq, :$CompletionStatus)</t>
+  </si>
+  <si>
+    <t>PROCEDURES DEFINED IN ZHRI110A.SQC</t>
+  </si>
+  <si>
+    <t>Update-History-Row</t>
+  </si>
+  <si>
+    <t>Delete-Trigger-Record</t>
+  </si>
+  <si>
+    <t>Delete-History-Row</t>
+  </si>
+  <si>
+    <t>Check-Old-Enough</t>
+  </si>
+  <si>
+    <t>($AsOfToday,$WrkEffdt,:#num_days)</t>
+  </si>
+  <si>
+    <t>HR201-Initialize-Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR201-Process-Main </t>
+  </si>
+  <si>
+    <t>HR201-Massage-Data</t>
+  </si>
+  <si>
+    <t>HR201-Get-Personal-Data</t>
+  </si>
+  <si>
+    <t>HR201-Get-POI-data</t>
+  </si>
+  <si>
+    <t>HR201-Get-Emp-Data</t>
+  </si>
+  <si>
+    <t>HR201-GET-Emp-Poi</t>
+  </si>
+  <si>
+    <t>HR201-Get-PrimEid-POIdata</t>
+  </si>
+  <si>
+    <t>HR201-Get-POI-LegPosNo</t>
+  </si>
+  <si>
+    <t>HR201-Get-Alternate_Type</t>
+  </si>
+  <si>
+    <t>HR201-Build-Call-Statement</t>
+  </si>
+  <si>
+    <t>HR202-Initialize-Fields</t>
+  </si>
+  <si>
+    <t>HR202-Process-Main</t>
+  </si>
+  <si>
+    <t>HR202-Get-Term-Date</t>
+  </si>
+  <si>
+    <t>HR202-Call-System</t>
+  </si>
+  <si>
+    <t>HR205-Initialize-Fields</t>
+  </si>
+  <si>
+    <t>HR205-Process-Main</t>
+  </si>
+  <si>
+    <t>HR205-Get-Personal-Data</t>
+  </si>
+  <si>
+    <t>HR205-Get-Emp-Poi</t>
+  </si>
+  <si>
+    <t>HR205-Get-Poi-Data</t>
+  </si>
+  <si>
+    <t>HR205-Get-Emp-Data</t>
+  </si>
+  <si>
+    <t>HR205-Get-Primeid-Poidata</t>
+  </si>
+  <si>
+    <t>HR205-Get-Poi-Legposno</t>
+  </si>
+  <si>
+    <t>HR205-Get-Alternate_Type</t>
+  </si>
+  <si>
+    <t>HR205-Massage-Data</t>
+  </si>
+  <si>
+    <t>HR205-Call-Rpg-Program</t>
+  </si>
+  <si>
+    <t>PROCEDURES DEFINED IN ZHRI107A.SQC - EmployeeDateChange</t>
+  </si>
+  <si>
+    <t>PROCEDURES DEFINED IN ZHRI105A.SQC - EmployeeDemographicChange</t>
+  </si>
+  <si>
+    <t>PROCEDURES DEFINED IN ZHRI109A.SQC - EmployeeGroupTransfer</t>
+  </si>
+  <si>
+    <t>PROCEDURES DEFINED IN ZHRI104A.SQC - EmployeeJobProfileChange</t>
+  </si>
+  <si>
+    <t>PROCEDURES DEFINED IN ZHRI101A.SQC - EmployeeNewHire</t>
+  </si>
+  <si>
+    <t>PROCEDURES DEFINED IN ZHRI102A.SQC - EmployeeTermination</t>
+  </si>
+  <si>
+    <t>PROCEDURES DEFINED IN ZHRI100A.SQR - Main</t>
+  </si>
+  <si>
+    <t>PROCEDURES DEFINED IN ZHRI201A.SQC - NonPersonNewHire</t>
+  </si>
+  <si>
+    <t>PROCEDURES DEFINED IN ZHRI202A.SQC - NonPersonTerminate</t>
+  </si>
+  <si>
+    <t>This program will move rows from the Trigger table to the History Table.  It will also delete rows from the history file after they have resided there for one year.</t>
+  </si>
+  <si>
+    <t>PROCEDURES DEFINED IN ZHRI205A.SQC - Process POI/Alt EMP changes</t>
   </si>
 </sst>
 </file>
@@ -662,15 +1059,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -694,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -702,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -710,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -718,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -726,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -734,7 +1129,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -742,7 +1137,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -750,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -758,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -766,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -774,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -782,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -790,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -798,251 +1193,1169 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
         <v>48</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>